--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:03:35+00:00</t>
+    <t>2022-11-30T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:32:33+00:00</t>
+    <t>2022-12-01T07:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:10:15+00:00</t>
+    <t>2022-12-01T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:50:10+00:00</t>
+    <t>2022-12-01T08:28:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:28:25+00:00</t>
+    <t>2022-12-01T12:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T12:14:26+00:00</t>
+    <t>2022-12-01T15:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:41:11+00:00</t>
+    <t>2022-12-01T18:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T18:12:17+00:00</t>
+    <t>2022-12-01T19:34:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:34:39+00:00</t>
+    <t>2022-12-02T06:33:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:33:16+00:00</t>
+    <t>2022-12-02T09:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:37:58+00:00</t>
+    <t>2022-12-02T12:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:32:21+00:00</t>
+    <t>2023-01-11T14:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:31:51+00:00</t>
+    <t>2023-01-11T15:47:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:47:52+00:00</t>
+    <t>2023-01-11T16:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T16:39:12+00:00</t>
+    <t>2023-01-12T06:02:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T06:02:57+00:00</t>
+    <t>2023-01-12T13:20:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T13:20:19+00:00</t>
+    <t>2023-01-12T14:08:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T14:08:07+00:00</t>
+    <t>2023-01-12T14:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T14:55:30+00:00</t>
+    <t>2023-01-12T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T16:14:01+00:00</t>
+    <t>2023-01-12T16:41:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T16:41:50+00:00</t>
+    <t>2023-01-12T17:05:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T17:05:04+00:00</t>
+    <t>2023-01-12T17:34:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T17:34:31+00:00</t>
+    <t>2023-01-12T19:06:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T19:06:40+00:00</t>
+    <t>2023-01-12T19:39:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T19:39:17+00:00</t>
+    <t>2023-01-13T06:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T06:54:07+00:00</t>
+    <t>2023-01-13T07:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T07:29:30+00:00</t>
+    <t>2023-01-13T08:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T08:57:34+00:00</t>
+    <t>2023-01-13T09:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T09:58:50+00:00</t>
+    <t>2023-01-13T10:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T10:29:27+00:00</t>
+    <t>2023-01-16T11:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T11:51:15+00:00</t>
+    <t>2023-01-16T12:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T12:33:27+00:00</t>
+    <t>2023-01-16T14:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T14:19:38+00:00</t>
+    <t>2023-01-16T14:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T14:48:34+00:00</t>
+    <t>2023-01-16T15:26:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:26:09+00:00</t>
+    <t>2023-01-16T15:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:57:09+00:00</t>
+    <t>2023-01-16T16:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T16:56:22+00:00</t>
+    <t>2023-01-16T17:14:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T17:14:17+00:00</t>
+    <t>2023-01-16T17:43:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T17:43:27+00:00</t>
+    <t>2023-01-16T18:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T18:10:54+00:00</t>
+    <t>2023-01-17T06:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T06:23:50+00:00</t>
+    <t>2023-01-17T07:03:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T07:03:05+00:00</t>
+    <t>2023-01-17T07:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T07:32:01+00:00</t>
+    <t>2023-01-17T08:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T08:15:18+00:00</t>
+    <t>2023-01-17T08:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Covid19 Practitioner</t>
+    <t>Practitioner</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T08:38:12+00:00</t>
+    <t>2023-01-17T11:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,6 +81,9 @@
     <t>Description</t>
   </si>
   <si>
+    <t>The healthcare professional who has been assigned to a given lab task</t>
+  </si>
+  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -100,9 +103,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Practitioner</t>
   </si>
   <si>
     <t>Base Definition</t>
@@ -1085,43 +1085,43 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1329,10 +1329,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1412,7 +1412,7 @@
         <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T11:11:06+00:00</t>
+    <t>2023-01-17T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T11:46:45+00:00</t>
+    <t>2023-01-17T13:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T13:03:59+00:00</t>
+    <t>2023-01-17T14:44:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T14:44:37+00:00</t>
+    <t>2023-01-17T15:24:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T15:24:16+00:00</t>
+    <t>2023-01-17T16:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T16:11:06+00:00</t>
+    <t>2023-01-18T09:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T09:08:24+00:00</t>
+    <t>2023-01-18T12:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T12:04:25+00:00</t>
+    <t>2023-01-18T12:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T12:48:48+00:00</t>
+    <t>2023-01-18T14:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:34:48+00:00</t>
+    <t>2023-01-19T12:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T12:12:19+00:00</t>
+    <t>2023-01-20T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T14:21:04+00:00</t>
+    <t>2023-01-21T13:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T13:28:04+00:00</t>
+    <t>2023-01-23T10:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T10:58:26+00:00</t>
+    <t>2023-01-23T16:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:01:34+00:00</t>
+    <t>2023-01-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T12:59:21+00:00</t>
+    <t>2023-01-25T07:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T07:53:15+00:00</t>
+    <t>2023-01-25T13:17:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:17:11+00:00</t>
+    <t>2023-01-25T15:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T15:28:11+00:00</t>
+    <t>2023-01-26T13:59:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T13:59:31+00:00</t>
+    <t>2023-01-27T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T13:52:39+00:00</t>
+    <t>2023-01-28T12:05:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-28T12:05:49+00:00</t>
+    <t>2023-01-31T09:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T09:39:29+00:00</t>
+    <t>2023-01-31T16:23:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T16:23:08+00:00</t>
+    <t>2023-02-01T07:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T07:41:44+00:00</t>
+    <t>2023-02-01T15:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T15:14:51+00:00</t>
+    <t>2023-02-03T06:45:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T06:45:37+00:00</t>
+    <t>2023-02-03T16:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T16:07:07+00:00</t>
+    <t>2023-02-06T16:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T16:11:51+00:00</t>
+    <t>2023-02-06T16:23:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T16:23:37+00:00</t>
+    <t>2023-02-07T09:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T09:59:06+00:00</t>
+    <t>2023-02-07T10:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T10:23:57+00:00</t>
+    <t>2023-02-07T15:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T15:49:26+00:00</t>
+    <t>2023-02-09T06:56:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T06:56:17+00:00</t>
+    <t>2023-02-17T06:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:44:04+00:00</t>
+    <t>2023-02-17T13:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T13:07:02+00:00</t>
+    <t>2023-02-20T07:31:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:31:23+00:00</t>
+    <t>2023-02-24T05:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T05:16:13+00:00</t>
+    <t>2023-02-24T12:41:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T12:41:05+00:00</t>
+    <t>2023-02-27T13:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:21:54+00:00</t>
+    <t>2023-02-28T10:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:02:19+00:00</t>
+    <t>2023-03-02T06:03:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:03:12+00:00</t>
+    <t>2023-03-03T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:24:05+00:00</t>
+    <t>2023-03-09T10:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:20:35+00:00</t>
+    <t>2023-03-09T14:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T14:36:45+00:00</t>
+    <t>2023-03-13T06:32:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-practitioner.xlsx
+++ b/branches/master/StructureDefinition-covid19-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T06:32:29+00:00</t>
+    <t>2023-04-04T11:04:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
